--- a/test001/book/gup.xlsx
+++ b/test001/book/gup.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5850"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -124,15 +124,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -140,17 +146,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -470,107 +605,112 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
     </row>
